--- a/analysis_nist_pqc_signatures.xlsx
+++ b/analysis_nist_pqc_signatures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gilbertndollanedione/Desktop/nist-pqc-first-round-signatures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3B912E-2DA8-654E-A186-08AF233F3EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F187050-078F-AF44-A6CF-29254EAC7DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{C8054BE3-D351-A644-8250-379CA416B869}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="185">
   <si>
     <t>v0.7.1</t>
   </si>
@@ -1293,9 +1293,6 @@
   </si>
   <si>
     <t>insecure</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <r>
@@ -4730,13 +4727,176 @@
     </r>
   </si>
   <si>
+    <t>Fatal error: exception Invalid_argument("Unreachable virtual address 7ffff7af9018")</t>
+  </si>
+  <si>
+    <t>Take long (about 10 minutes)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">With core dump: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Unknown</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>.     (Exploration incomplete)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">Without core dump: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>secure</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>With core dump:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Unknown</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Exploration incomplete)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">Without core dump: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>secure</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Flowtracker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Rather Test mayo_keypair in mayo.c </t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>Fatal error:</t>
+      <t>[sse:error]</t>
     </r>
     <r>
       <rPr>
@@ -4757,45 +4917,177 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>exception Invalid_argument("Unreachable virtual address 7ffff7af9018")</t>
-    </r>
-  </si>
-  <si>
-    <t>Fatal error: exception Invalid_argument("Unreachable virtual address 7ffff7af9018")</t>
-  </si>
-  <si>
+      <t>Cut path 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (uninterpreted "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>syscall</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>") @ 0x7ffff7e17225</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Flowtracker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Rather Test mayo_sign in mayo.c. </t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t xml:space="preserve">Fatal error: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>exception Invalid_argument("Unreachable virtual address 7ffff7af9018")</t>
-    </r>
-  </si>
-  <si>
-    <t>Take long (about 10 minutes)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">With core dump: </t>
+      <t>[sse:error]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cut path 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (uninterpreted "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>syscall</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>") @ 0x7ffff7ee34a9</t>
+    </r>
+  </si>
+  <si>
+    <t>With core dump yet to add</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">pk is part of sk.                     Binsec: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[sse:error] Cut path 1 (uninterpreted "syscall") @ 0x7ffff7edcf59</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">pk is part of sk.                    Bisnec: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[sse:error] Cut path 1 (uninterpreted "syscall") @ 0x7ffff7edcf59</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sse-depth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= 1000-100.000: </t>
     </r>
     <r>
       <rPr>
@@ -4808,51 +5100,66 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>.     (Exploration incomplete)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">Without core dump: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>secure</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>With core dump:</t>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.     (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Exploration incomplete</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">).           </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sse-depth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= 1000.000. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fatal error: exception</t>
     </r>
     <r>
       <rPr>
@@ -4868,6 +5175,19 @@
       <rPr>
         <b/>
         <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Libsse.Types.Unknown</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
         <color rgb="FF7030A0"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
@@ -4892,236 +5212,44 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(Exploration incomplete)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">Without core dump: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>secure</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Flowtracker</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Rather Test mayo_keypair in mayo.c </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>[sse:error]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cut path 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (uninterpreted "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>syscall</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>") @ 0x7ffff7e17225</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Flowtracker</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Rather Test mayo_sign in mayo.c. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>[sse:error]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cut path 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (uninterpreted "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>syscall</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>") @ 0x7ffff7ee34a9</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>Fatal error</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>exception Invalid_argument("Unreachable virtual address 7ffff7af9018")</t>
-    </r>
-  </si>
-  <si>
-    <t>With core dump yet to add</t>
+      <t>(Exploration incomplete</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">pk is part of sk.                       Binsec:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[sse:error] Cut path 1 (uninterpreted "syscall") @ 0x7ffff7edcf59  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                 </t>
+    </r>
   </si>
   <si>
     <r>
@@ -5135,46 +5263,21 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>[sse:error] Cut path 1 (uninterpreted "syscall") @ 0x7ffff7edcf59</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">pk is part of sk.                    Bisnec: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[sse:error] Cut path 1 (uninterpreted "syscall") @ 0x7ffff7edcf59</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sse-depth</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">= 1000-100.000: </t>
-    </r>
+      <t xml:space="preserve">[sse:error] Cut path 1 (uninterpreted "syscall") @ 0x7ffff7edcf59  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                   </t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -5182,229 +5285,6 @@
         <color rgb="FF7030A0"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>Unknown</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.     (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Exploration incomplete</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">).           </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sse-depth</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">= 1000.000. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Fatal error: exception</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Libsse.Types.Unknown</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>Unknown</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.     </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Exploration incomplete</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">pk is part of sk.                       Binsec:  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">[sse:error] Cut path 1 (uninterpreted "syscall") @ 0x7ffff7edcf59  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">pk is part of sk.                     Binsec: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">[sse:error] Cut path 1 (uninterpreted "syscall") @ 0x7ffff7edcf59  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                   </t>
-    </r>
-  </si>
-  <si>
-    <t>Fatal error: exception Invalid_argument("Unreachable virtual address 7ffff79aa018")</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>Executing ctgrind with script. Segmentation fault</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> at: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pqsigrm613/src/sign.c:32</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
       <t>For the moment, maybe constant time</t>
     </r>
     <r>
@@ -5416,69 +5296,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> meas:   87.02 M, max t:   +2.90, max tau: 3.11e-04, (5/tau)^2: 2.59e+08. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>For the moment, maybe constant time</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> meas:   11.95 M (M=1e6)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>max t:   +1.93</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, max tau: 5.58e-04, (5/tau)^2: 8.04e+07. e</t>
     </r>
   </si>
   <si>
@@ -5800,7 +5617,2619 @@
         <color rgb="FF7030A0"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t xml:space="preserve">For the moment, maybe constant time  </t>
+      <t>For the moment, maybe constant time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>meas:   17.85 M (M=1e6),                           max t:   +1.83</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, max tau: 4.33e-04, (5/tau)^2: 1.33e+08. .</t>
+    </r>
+  </si>
+  <si>
+    <t>Stubs for binsec</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Keypair</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:  0x555555561168 &lt;__</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>KeccakF1600</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+104&gt;:  vpblendd $0xc0,%ymm8,%ymm15,%ymm15.                     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>sign</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 0x555555561168 &lt;__</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>KeccakF1600</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+104&gt;:  vpblendd $0xc0,%ymm8,%ymm15,%ymm15</t>
+    </r>
+  </si>
+  <si>
+    <t>secure</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>keypair</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>getrandom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 0x7ffff7f2e746 &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>__GI__dl_add</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">r+198&gt;:  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">je </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    0x7ffff7f2e7e8 &lt;__GI__dl_addr+360&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>keypair</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 0x7ffff7edcf59 &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>__libc_open64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+89&gt;:   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">syscall. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Sign</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>0x7ffff7edcf59</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>__libc_open64</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>89&gt;:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">   syscall </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>keypair</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 0x7ffff7edcf59 &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>__libc_open64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+89&gt;:   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">syscall.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">Sign </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">(max depth) : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>cut path @</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>0x555555594ec3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;bf8_inv+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>707</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">&gt;:        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>pop    %rbx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>keypair</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 0x7ffff7edcf59 &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>__libc_open64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+89&gt;:   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">syscall.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Sign</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>0x7ffff7edcf59</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>__libc_open64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>+89</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">&gt;: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">  syscall</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>For the moment, maybe constant tim</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">e. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>meas:   39.70 M (M=1e6), max t:   +0.84</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, max tau: 1.34e-04, (5/tau)^2: 1.39e+09. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>For the moment, maybe constant time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.                       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>meas: 1225.96 M (M=1e6), max t:   +1.81</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, max tau: 5.16e-05, (5/tau)^2: 9.38e+09. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>For the moment, maybe constant time.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>meas:    0.01 M (1000), max t:   +0.43</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, max tau: 4.14e-03, (5/tau)^2: 1.46e+06. .</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Program status is :</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> insecure (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Exection finished</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">).  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Addresses of issues  don't match with the objdump output file.</t>
+    </r>
+  </si>
+  <si>
+    <t>Program status is : insecure (Exection finished).  Addresses of issues  don't match with the objdump output file</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">/usr/bin/ld: attempted </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>static link of dynamic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> object `/lib/x86_64-linux-gnu/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>libm.so.6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'.    `/lib/x86_64-linux-gnu/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>libmvec.so.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'. `/usr/lib/gcc/x86_64-linux-gnu/11/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>libgomp.so</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <t>same issue</t>
+  </si>
+  <si>
+    <t>I stopped execution after 10 minutes: No issue found yet</t>
+  </si>
+  <si>
+    <t>unknown  (-fml-solver-timeout 2 ==&gt; killed)</t>
+  </si>
+  <si>
+    <t>Program status is : insecure Points to the lines where there's probably nothing</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>NV:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> For the moment, maybe constant time.                      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>meas:    0.07 M, max (M=1e4) t:   +2.17</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>max tau: 8.40e-03, (5/tau)^2: 3.54e+05.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">                             For the moment, maybe constant time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.                       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>meas:    1.00 M, max t:   +1.57 (M=1e6)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, max tau: 1.57e-03, (5/tau)^2: 1.02e+07. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>NV:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> Probably not constant time.   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>meas:    0.28 M (M=1e6/1e5/1e3), max t:  +11.01,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">max tau: 2.08e-02, (5/tau)^2: 5.80e+04.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>NV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> For the moment, maybe constant timemeas:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.78 M (M=1e5), max t:   +1.41</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, max tau: 7.26e-04, (5/tau)^2: 4.74e+07. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Unknown</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">.     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(Exploration incomplete)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">keypair/sign </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:  0x7ffff7991c85 &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>__GI___getrandom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+21&gt;:        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">syscall.                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>0x7ffff7a6582</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>9 &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>__brk</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">+9&gt;:    syscall                            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>0x7ffff7a69a25</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>__GI___mmap64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>+21&gt;:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">   syscall</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Unknown</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.     (Exploration incomplete)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>keypair/sign</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 0x7ffff7a69a25 &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>__GI___mmap64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+21&gt;:   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>syscall</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Unknown</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.     (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Exploration incomplete</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)    [sse:fatal] Can not resolve symbol &lt;mlen&gt;
+Fatal error: exception Failure("abort")</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> keypair:     0x7ffff7991c85 &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>__GI___getrandom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+21&gt;:        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>syscall</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.                     0x7ffff7a65829 &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>__brk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+9&gt;:    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>syscall</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.                      0x7ffff7a69a25 &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>__GI___mmap64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+21&gt;:       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>syscall</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                        0x7ffff79e4f0e &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>__pthread_once_slow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+270&gt;:    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">syscall.                                           </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>sign</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>0x55555558b9e8 &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>__KeccakF1600</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>+104&gt;:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">vpblendd $0xc0,%ymm8,%ymm15,%ymm15 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>"KO"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>keypair</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 0x5555555560d2 &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ryde_128f_keygen.constprop.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+2226&gt;:  vperm2i128 $0x20,%ymm10,%ymm12,%ymm2 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">"KO" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>sign:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>0x5555555552d2 &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>main</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">+402&gt;:   vperm2i128 $0x20,%ymm10,%ymm12,%ymm0 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>"KO"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Unknown</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">.     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(Exploration incomplete)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Unknown</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>.     (Exploration incomplete)  [sse:fatal] Can not resolve symbol &lt;mlen&gt;
+Fatal error: exception Failure("abort")</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Unknown</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.     (Exploration incomplete)  [sse:fatal] Can not resolve symbol &lt;mlen&gt;
+Fatal error: exception Failure("abort")</t>
+    </r>
+  </si>
+  <si>
+    <t>Build fails</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>keypair</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>sign</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 0x7ffff7a69a25 &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>__GI___mmap64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+21&gt;:   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>syscall</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">keypair </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 0x7ffff7a69a25 &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>__GI___mmap64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+21&gt;:   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>syscall</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>sse-depth = 10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Unknown</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> --&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>cut (max depth)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>crypto_sign</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">+4&gt;: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>push %r15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">.            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>sse-depth &gt;= 100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> ---</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>killed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>keypair</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>sign</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 0x7ffff7a69a25 &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>__GI___mmap64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+21&gt;:   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>syscall</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>keypair</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>sign</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 0x7ffff7a69a25 &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>__GI___mmap64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+21&gt;:   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>syscall</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>keypair</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 0x7ffff7a69a25 &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>__GI___mmap64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+21&gt;:   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>syscall</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>sign</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 0x7ffff7a69a25 &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>__GI___mmap64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+21&gt;:   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>syscall</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.   0x7ffff79d45db &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>__libc_message</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+507&gt;: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>syscall</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>insecure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.     (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Exploration incomplete</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>objdump</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Addresses are not completed and match only with the 4 first digits.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>keypair</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 0x7ffff7982a25 &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>__GI___mmap64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+21&gt;:   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>syscall</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>17 times</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">).                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Sign</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 0x55555555813e &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aurora_proof_max_size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+94&gt;:   cvtsi2sd %rax,%xmm0.     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>"cvtsi2sd %rax,%xmm0"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>NV</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>: For the moment, maybe constant time.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>meas:    0.29 M (M=1e5), max t:   +1.54</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, max tau: 2.89e-03, (5/tau)^2: 3.00e+06. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>NV</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>For the moment, maybe constant time</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.                     meas:    0.10 M (M=1e5), max t:   +2.35</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, max tau: 7.31e-03, (5/tau)^2: 4.68e+05. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>NV</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">:For the moment, maybe constant time.      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">meas:    3.30 M (1e5), max t:   +6.05, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">max tau: 3.33e-03, (5/tau)^2: 2.25e+06.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">      For the moment, maybe constant time. </t>
     </r>
     <r>
       <rPr>
@@ -5821,20 +8250,111 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>meas:    1.95 M, max t:   +2.32 (M=1e6)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, max tau: 1.66e-03, (5/tau)^2: 9.05e+06. </t>
-    </r>
-  </si>
-  <si>
+      <t>meas:    4.50 M, max t:   +4.56 (M=1e6)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, max tau: 2.15e-03, (5/tau)^2: 5.42e+06. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>NVI:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> Definitely</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>not constant time</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>meas:    0.06 M(M=1e5) , max t: +29592.55</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, max tau: 1.24e+02, (5/tau)^2: 1.61e-03. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>NVI:</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -5842,41 +8362,16 @@
         <color rgb="FF7030A0"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>For the moment, maybe constant time</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.                       </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>meas:    1.00 M, max t:   +1.57 (M=1e6)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, max tau: 1.57e-03, (5/tau)^2: 1.02e+07. </t>
-    </r>
-  </si>
-  <si>
+      <t xml:space="preserve"> For the moment, maybe constant time.   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>meas:    0.88 M (M=1e5), max t:   +2.22</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -5884,15 +8379,50 @@
         <color rgb="FF7030A0"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>For the moment, maybe constant time</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>max tau: 2.37e-03, (5/tau)^2: 4.45e+06.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">          </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> NVI:  For the moment, maybe constant time.  meas:    0.24 M, max t:   +1.37, max tau: 2.81e-03, (5/tau)^2: 3.17e+06.         NV: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">Probably not constant time. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -5900,25 +8430,10 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>meas:   17.85 M (M=1e6),                           max t:   +1.83</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, max tau: 4.33e-04, (5/tau)^2: 1.33e+08. .</t>
-    </r>
-  </si>
-  <si>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>meas:    1.19 M (M=1e5), max t:  +10.32</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -5926,41 +8441,26 @@
         <color rgb="FF7030A0"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t xml:space="preserve">For the moment, maybe constant time. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>meas:    4.50 M, max t:   +4.56 (M=1e6)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, max tau: 2.15e-03, (5/tau)^2: 5.42e+06. </t>
-    </r>
-  </si>
-  <si>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">max tau: 9.46e-03, (5/tau)^2: 2.80e+05. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">NVI: </t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -5972,124 +8472,46 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>meas:    0.01 M(M=13), max t: +316.36,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>meas:    0.50 M (M=1e6), max t:  +15.08</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, max tau: 2.14e-02, (5/tau)^2: 5.47e+04. </t>
-    </r>
-  </si>
-  <si>
-    <t>Stubs for binsec</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>Keypair</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:  0x555555561168 &lt;__</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>KeccakF1600</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">+104&gt;:  vpblendd $0xc0,%ymm8,%ymm15,%ymm15.                     </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>sign</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 0x555555561168 &lt;__</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>KeccakF1600</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+104&gt;:  vpblendd $0xc0,%ymm8,%ymm15,%ymm15</t>
-    </r>
-  </si>
-  <si>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">max tau: 3.03e+00, (5/tau)^2: 2.72e+00.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">                           NV:</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -6097,7 +8519,7 @@
         <color rgb="FFC00000"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>Definitely</t>
+      <t xml:space="preserve"> Definitely </t>
     </r>
     <r>
       <rPr>
@@ -6106,773 +8528,34 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t xml:space="preserve"> not constant time.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>meas:    0.02 M (M=1e4), max t: +1771.74</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, max tau: 1.26e+01, (5/tau)^2: 1.59e-01. </t>
-    </r>
-  </si>
-  <si>
-    <t>secure</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>keypair</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>getrandom</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - 0x7ffff7f2e746 &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>__GI__dl_add</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">r+198&gt;:  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF002060"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">je </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">    0x7ffff7f2e7e8 &lt;__GI__dl_addr+360&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>keypair</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 0x7ffff7edcf59 &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>__libc_open64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">+89&gt;:   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF002060"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">syscall. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>Sign</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF002060"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF002060"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>0x7ffff7edcf59</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF002060"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>__libc_open64</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF002060"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF002060"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>89&gt;:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF002060"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">   syscall </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>keypair</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 0x7ffff7edcf59 &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>__libc_open64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">+89&gt;:   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF002060"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">syscall.  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">Sign </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF002060"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">(max depth) : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>cut path @</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF002060"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>0x555555594ec3</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF002060"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;bf8_inv+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>707</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF002060"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">&gt;:        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>pop    %rbx</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>keypair</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 0x7ffff7edcf59 &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>__libc_open64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">+89&gt;:   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF002060"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">syscall.  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>Sign</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF002060"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>0x7ffff7edcf59</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF002060"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>__libc_open64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>+89</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">&gt;: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF002060"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">  syscall</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>For the moment, maybe constant tim</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">e. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>meas:   39.70 M (M=1e6), max t:   +0.84</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, max tau: 1.34e-04, (5/tau)^2: 1.39e+09. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>For the moment, maybe constant time</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.                       </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>meas: 1225.96 M (M=1e6), max t:   +1.81</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, max tau: 5.16e-05, (5/tau)^2: 9.38e+09. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>For the moment, maybe constant time.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                      </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>meas:    0.01 M (1000), max t:   +0.43</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, max tau: 4.14e-03, (5/tau)^2: 1.46e+06. .</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>Program status is :</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> insecure (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>Exection finished</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">).  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>Addresses of issues  don't match with the objdump output file.</t>
-    </r>
-  </si>
-  <si>
-    <t>Program status is : insecure (Exection finished).  Addresses of issues  don't match with the objdump output file</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">/usr/bin/ld: attempted </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>static link of dynamic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> object `/lib/x86_64-linux-gnu/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>libm.so.6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'.    `/lib/x86_64-linux-gnu/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>libmvec.so.1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'. `/usr/lib/gcc/x86_64-linux-gnu/11/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>libgomp.so</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'</t>
-    </r>
-  </si>
-  <si>
-    <t>same issue</t>
-  </si>
-  <si>
-    <t>I stopped execution after 10 minutes: No issue found yet</t>
-  </si>
-  <si>
-    <t>unknown  (-fml-solver-timeout 2 ==&gt; killed)</t>
-  </si>
-  <si>
-    <t>Program status is : insecure Points to the lines where there's probably nothing</t>
+      <t xml:space="preserve">not constant time.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>meas:    0.02 M (M=1e4), max t: +1289.36</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> max tau: 9.12e+00, (5/tau)^2: 3.00e-01. </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -7275,7 +8958,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -7575,6 +9258,33 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7892,8 +9602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36623FBA-CEA1-594C-B41A-AB27154FBA5D}">
   <dimension ref="A1:Q143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119:O120"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
+      <selection activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8041,7 +9751,7 @@
       </c>
       <c r="O5" s="20"/>
       <c r="P5" s="19" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="Q5" s="16"/>
     </row>
@@ -8109,16 +9819,16 @@
         <v>9</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D9" s="48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E9" s="51" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F9" s="22" t="s">
         <v>16</v>
@@ -8222,16 +9932,16 @@
         <v>10</v>
       </c>
       <c r="B14" s="63" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D14" s="67" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E14" s="67" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="F14" s="22" t="s">
         <v>16</v>
@@ -8240,7 +9950,9 @@
         <v>16</v>
       </c>
       <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
+      <c r="I14" s="51" t="s">
+        <v>178</v>
+      </c>
       <c r="J14" s="55" t="s">
         <v>18</v>
       </c>
@@ -8255,8 +9967,10 @@
         <v>21</v>
       </c>
       <c r="O14" s="10"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
+      <c r="P14" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q14" s="29"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="26"/>
@@ -8267,15 +9981,15 @@
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
       <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
+      <c r="I15" s="45"/>
       <c r="J15" s="56"/>
       <c r="K15" s="56"/>
       <c r="L15" s="6"/>
       <c r="M15" s="7"/>
       <c r="N15" s="6"/>
       <c r="O15" s="11"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="31"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="26"/>
@@ -8286,15 +10000,15 @@
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
       <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
+      <c r="I16" s="45"/>
       <c r="J16" s="56"/>
       <c r="K16" s="56"/>
       <c r="L16" s="6"/>
       <c r="M16" s="7"/>
       <c r="N16" s="6"/>
       <c r="O16" s="11"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="31"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="26"/>
@@ -8305,15 +10019,15 @@
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
       <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
+      <c r="I17" s="45"/>
       <c r="J17" s="56"/>
       <c r="K17" s="56"/>
       <c r="L17" s="6"/>
       <c r="M17" s="7"/>
       <c r="N17" s="6"/>
       <c r="O17" s="11"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="31"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
@@ -8324,15 +10038,15 @@
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
+      <c r="I18" s="46"/>
       <c r="J18" s="57"/>
       <c r="K18" s="57"/>
       <c r="L18" s="8"/>
       <c r="M18" s="9"/>
       <c r="N18" s="8"/>
       <c r="O18" s="12"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="33"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="61" t="s">
@@ -8342,22 +10056,24 @@
         <v>62</v>
       </c>
       <c r="C19" s="47" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D19" s="90" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" s="51" t="s">
         <v>112</v>
-      </c>
-      <c r="E19" s="51" t="s">
-        <v>113</v>
       </c>
       <c r="F19" s="22" t="s">
         <v>16</v>
       </c>
       <c r="G19" s="70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="I19" s="51" t="s">
+        <v>179</v>
+      </c>
       <c r="J19" s="22" t="s">
         <v>16</v>
       </c>
@@ -8367,11 +10083,11 @@
       <c r="L19" s="74"/>
       <c r="M19" s="75"/>
       <c r="N19" s="95" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O19" s="80"/>
       <c r="P19" s="28" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="Q19" s="29"/>
     </row>
@@ -8384,7 +10100,7 @@
       <c r="F20" s="23"/>
       <c r="G20" s="49"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="I20" s="45"/>
       <c r="J20" s="23"/>
       <c r="K20" s="26"/>
       <c r="L20" s="76"/>
@@ -8403,7 +10119,7 @@
       <c r="F21" s="23"/>
       <c r="G21" s="49"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="I21" s="45"/>
       <c r="J21" s="23"/>
       <c r="K21" s="26"/>
       <c r="L21" s="76"/>
@@ -8422,7 +10138,7 @@
       <c r="F22" s="23"/>
       <c r="G22" s="49"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="I22" s="45"/>
       <c r="J22" s="23"/>
       <c r="K22" s="26"/>
       <c r="L22" s="76"/>
@@ -8441,7 +10157,7 @@
       <c r="F23" s="23"/>
       <c r="G23" s="49"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="I23" s="45"/>
       <c r="J23" s="23"/>
       <c r="K23" s="26"/>
       <c r="L23" s="76"/>
@@ -8460,7 +10176,7 @@
       <c r="F24" s="23"/>
       <c r="G24" s="49"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="I24" s="45"/>
       <c r="J24" s="23"/>
       <c r="K24" s="26"/>
       <c r="L24" s="76"/>
@@ -8479,7 +10195,7 @@
       <c r="F25" s="23"/>
       <c r="G25" s="49"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="I25" s="45"/>
       <c r="J25" s="23"/>
       <c r="K25" s="26"/>
       <c r="L25" s="76"/>
@@ -8498,7 +10214,7 @@
       <c r="F26" s="24"/>
       <c r="G26" s="50"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="I26" s="46"/>
       <c r="J26" s="24"/>
       <c r="K26" s="27"/>
       <c r="L26" s="78"/>
@@ -8513,16 +10229,16 @@
         <v>12</v>
       </c>
       <c r="B27" s="51" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C27" s="51" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D27" s="51" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="E27" s="51" t="s">
-        <v>117</v>
+        <v>168</v>
       </c>
       <c r="F27" s="25" t="s">
         <v>16</v>
@@ -8531,10 +10247,10 @@
         <v>16</v>
       </c>
       <c r="H27" s="51" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="I27" s="51" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="J27" s="55" t="s">
         <v>22</v>
@@ -8546,8 +10262,10 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="2"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
+      <c r="P27" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q27" s="29"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="26"/>
@@ -8565,8 +10283,8 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="2"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="31"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="26"/>
@@ -8584,8 +10302,8 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="2"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="31"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="26"/>
@@ -8603,8 +10321,8 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="2"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="31"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
@@ -8622,24 +10340,24 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="2"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="33"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B32" s="47" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C32" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="D32" s="51" t="s">
-        <v>117</v>
+        <v>140</v>
+      </c>
+      <c r="D32" s="103" t="s">
+        <v>159</v>
       </c>
       <c r="E32" s="51" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="F32" s="25" t="s">
         <v>16</v>
@@ -8648,10 +10366,10 @@
         <v>16</v>
       </c>
       <c r="H32" s="51" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="I32" s="51" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="J32" s="25" t="s">
         <v>16</v>
@@ -8667,8 +10385,10 @@
         <v>23</v>
       </c>
       <c r="O32" s="10"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
+      <c r="P32" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q32" s="29"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="60"/>
@@ -8686,8 +10406,8 @@
       <c r="M33" s="7"/>
       <c r="N33" s="6"/>
       <c r="O33" s="11"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="31"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="60"/>
@@ -8705,8 +10425,8 @@
       <c r="M34" s="7"/>
       <c r="N34" s="6"/>
       <c r="O34" s="11"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="31"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="60"/>
@@ -8724,8 +10444,8 @@
       <c r="M35" s="7"/>
       <c r="N35" s="6"/>
       <c r="O35" s="11"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="31"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
@@ -8743,24 +10463,24 @@
       <c r="M36" s="9"/>
       <c r="N36" s="8"/>
       <c r="O36" s="12"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="33"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="61" t="s">
         <v>14</v>
       </c>
       <c r="B37" s="51" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="C37" s="51" t="s">
-        <v>162</v>
-      </c>
-      <c r="D37" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="E37" s="51" t="s">
-        <v>117</v>
+        <v>150</v>
+      </c>
+      <c r="D37" s="83" t="s">
+        <v>166</v>
+      </c>
+      <c r="E37" s="104" t="s">
+        <v>167</v>
       </c>
       <c r="F37" s="25" t="s">
         <v>16</v>
@@ -8769,10 +10489,10 @@
         <v>16</v>
       </c>
       <c r="H37" s="51" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="I37" s="51" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="J37" s="59" t="s">
         <v>27</v>
@@ -8788,8 +10508,10 @@
         <v>26</v>
       </c>
       <c r="O37" s="10"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
+      <c r="P37" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q37" s="29"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="26"/>
@@ -8807,8 +10529,8 @@
       <c r="M38" s="7"/>
       <c r="N38" s="6"/>
       <c r="O38" s="11"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="31"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="26"/>
@@ -8826,8 +10548,8 @@
       <c r="M39" s="7"/>
       <c r="N39" s="6"/>
       <c r="O39" s="11"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="31"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="26"/>
@@ -8845,8 +10567,8 @@
       <c r="M40" s="7"/>
       <c r="N40" s="6"/>
       <c r="O40" s="11"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
+      <c r="P40" s="30"/>
+      <c r="Q40" s="31"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="26"/>
@@ -8864,8 +10586,8 @@
       <c r="M41" s="7"/>
       <c r="N41" s="6"/>
       <c r="O41" s="11"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="31"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="27"/>
@@ -8883,8 +10605,8 @@
       <c r="M42" s="9"/>
       <c r="N42" s="8"/>
       <c r="O42" s="12"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
+      <c r="P42" s="32"/>
+      <c r="Q42" s="33"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
@@ -8931,25 +10653,25 @@
         <v>29</v>
       </c>
       <c r="B45" s="44" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C45" s="44" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D45" s="51" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E45" s="51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F45" s="25" t="s">
         <v>16</v>
       </c>
       <c r="G45" s="61" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H45" s="51" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="25" t="s">
@@ -9050,27 +10772,25 @@
         <v>32</v>
       </c>
       <c r="B50" s="44" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C50" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="D50" s="51" t="s">
-        <v>117</v>
+        <v>141</v>
+      </c>
+      <c r="D50" s="83" t="s">
+        <v>169</v>
       </c>
       <c r="E50" s="51" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="F50" s="51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G50" s="51" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H50" s="51"/>
-      <c r="I50" s="51" t="s">
-        <v>134</v>
-      </c>
+      <c r="I50" s="51"/>
       <c r="J50" s="25" t="s">
         <v>16</v>
       </c>
@@ -9165,22 +10885,22 @@
         <v>34</v>
       </c>
       <c r="B55" s="51" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C55" s="51" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D55" s="51" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="E55" s="51" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="F55" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="G55" s="51" t="s">
         <v>86</v>
-      </c>
-      <c r="G55" s="51" t="s">
-        <v>87</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -9198,8 +10918,10 @@
         <v>38</v>
       </c>
       <c r="O55" s="80"/>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
+      <c r="P55" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q55" s="29"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="26"/>
@@ -9217,8 +10939,8 @@
       <c r="M56" s="77"/>
       <c r="N56" s="76"/>
       <c r="O56" s="81"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
+      <c r="P56" s="30"/>
+      <c r="Q56" s="31"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="26"/>
@@ -9236,8 +10958,8 @@
       <c r="M57" s="77"/>
       <c r="N57" s="76"/>
       <c r="O57" s="81"/>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
+      <c r="P57" s="30"/>
+      <c r="Q57" s="31"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="26"/>
@@ -9255,8 +10977,8 @@
       <c r="M58" s="77"/>
       <c r="N58" s="76"/>
       <c r="O58" s="81"/>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
+      <c r="P58" s="30"/>
+      <c r="Q58" s="31"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="27"/>
@@ -9274,8 +10996,8 @@
       <c r="M59" s="79"/>
       <c r="N59" s="78"/>
       <c r="O59" s="82"/>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
+      <c r="P59" s="32"/>
+      <c r="Q59" s="33"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="19" t="s">
@@ -9322,16 +11044,16 @@
         <v>40</v>
       </c>
       <c r="B62" s="47" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C62" s="47" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D62" s="51" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E62" s="51" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F62" s="25" t="s">
         <v>16</v>
@@ -9339,9 +11061,11 @@
       <c r="G62" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="H62" s="1"/>
-      <c r="I62" s="51" t="s">
-        <v>144</v>
+      <c r="H62" s="51" t="s">
+        <v>158</v>
+      </c>
+      <c r="I62" s="102" t="s">
+        <v>183</v>
       </c>
       <c r="J62" s="25" t="s">
         <v>16</v>
@@ -9350,15 +11074,15 @@
         <v>16</v>
       </c>
       <c r="L62" s="74" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M62" s="75"/>
       <c r="N62" s="74" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O62" s="80"/>
       <c r="P62" s="28" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="Q62" s="29"/>
     </row>
@@ -9370,7 +11094,7 @@
       <c r="E63" s="45"/>
       <c r="F63" s="26"/>
       <c r="G63" s="26"/>
-      <c r="H63" s="1"/>
+      <c r="H63" s="45"/>
       <c r="I63" s="45"/>
       <c r="J63" s="26"/>
       <c r="K63" s="26"/>
@@ -9389,7 +11113,7 @@
       <c r="E64" s="45"/>
       <c r="F64" s="26"/>
       <c r="G64" s="26"/>
-      <c r="H64" s="1"/>
+      <c r="H64" s="45"/>
       <c r="I64" s="45"/>
       <c r="J64" s="26"/>
       <c r="K64" s="26"/>
@@ -9408,7 +11132,7 @@
       <c r="E65" s="45"/>
       <c r="F65" s="26"/>
       <c r="G65" s="26"/>
-      <c r="H65" s="1"/>
+      <c r="H65" s="45"/>
       <c r="I65" s="45"/>
       <c r="J65" s="26"/>
       <c r="K65" s="26"/>
@@ -9427,7 +11151,7 @@
       <c r="E66" s="46"/>
       <c r="F66" s="27"/>
       <c r="G66" s="27"/>
-      <c r="H66" s="1"/>
+      <c r="H66" s="46"/>
       <c r="I66" s="46"/>
       <c r="J66" s="27"/>
       <c r="K66" s="27"/>
@@ -9443,19 +11167,19 @@
         <v>41</v>
       </c>
       <c r="B67" s="47" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C67" s="47" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D67" s="51" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="E67" s="83" t="s">
-        <v>63</v>
+        <v>172</v>
       </c>
       <c r="F67" s="51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G67" s="25" t="s">
         <v>16</v>
@@ -9476,8 +11200,10 @@
         <v>43</v>
       </c>
       <c r="O67" s="80"/>
-      <c r="P67" s="1"/>
-      <c r="Q67" s="1"/>
+      <c r="P67" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q67" s="29"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="26"/>
@@ -9495,8 +11221,8 @@
       <c r="M68" s="77"/>
       <c r="N68" s="76"/>
       <c r="O68" s="81"/>
-      <c r="P68" s="1"/>
-      <c r="Q68" s="1"/>
+      <c r="P68" s="30"/>
+      <c r="Q68" s="31"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="26"/>
@@ -9514,8 +11240,8 @@
       <c r="M69" s="77"/>
       <c r="N69" s="76"/>
       <c r="O69" s="81"/>
-      <c r="P69" s="1"/>
-      <c r="Q69" s="1"/>
+      <c r="P69" s="30"/>
+      <c r="Q69" s="31"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="26"/>
@@ -9533,8 +11259,8 @@
       <c r="M70" s="77"/>
       <c r="N70" s="76"/>
       <c r="O70" s="81"/>
-      <c r="P70" s="1"/>
-      <c r="Q70" s="1"/>
+      <c r="P70" s="30"/>
+      <c r="Q70" s="31"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="27"/>
@@ -9552,34 +11278,34 @@
       <c r="M71" s="79"/>
       <c r="N71" s="78"/>
       <c r="O71" s="82"/>
-      <c r="P71" s="1"/>
-      <c r="Q71" s="1"/>
+      <c r="P71" s="32"/>
+      <c r="Q71" s="33"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="61" t="s">
         <v>44</v>
       </c>
       <c r="B72" s="51" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C72" s="51" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D72" s="51" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E72" s="51" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F72" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="G72" s="51" t="s">
         <v>89</v>
-      </c>
-      <c r="G72" s="51" t="s">
-        <v>90</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="51" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="J72" s="22" t="s">
         <v>16</v>
@@ -9679,22 +11405,22 @@
         <v>47</v>
       </c>
       <c r="B77" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="C77" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="C77" s="51" t="s">
-        <v>97</v>
-      </c>
       <c r="D77" s="51" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E77" s="51" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F77" s="25" t="s">
         <v>16</v>
       </c>
       <c r="G77" s="84" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -9712,8 +11438,10 @@
         <v>49</v>
       </c>
       <c r="O77" s="80"/>
-      <c r="P77" s="1"/>
-      <c r="Q77" s="1"/>
+      <c r="P77" s="105" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q77" s="106"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="26"/>
@@ -9731,8 +11459,8 @@
       <c r="M78" s="77"/>
       <c r="N78" s="76"/>
       <c r="O78" s="81"/>
-      <c r="P78" s="1"/>
-      <c r="Q78" s="1"/>
+      <c r="P78" s="107"/>
+      <c r="Q78" s="108"/>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="26"/>
@@ -9750,8 +11478,8 @@
       <c r="M79" s="77"/>
       <c r="N79" s="76"/>
       <c r="O79" s="81"/>
-      <c r="P79" s="1"/>
-      <c r="Q79" s="1"/>
+      <c r="P79" s="107"/>
+      <c r="Q79" s="108"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="26"/>
@@ -9769,8 +11497,8 @@
       <c r="M80" s="77"/>
       <c r="N80" s="76"/>
       <c r="O80" s="81"/>
-      <c r="P80" s="1"/>
-      <c r="Q80" s="1"/>
+      <c r="P80" s="107"/>
+      <c r="Q80" s="108"/>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" s="27"/>
@@ -9788,27 +11516,27 @@
       <c r="M81" s="79"/>
       <c r="N81" s="78"/>
       <c r="O81" s="82"/>
-      <c r="P81" s="1"/>
-      <c r="Q81" s="1"/>
+      <c r="P81" s="109"/>
+      <c r="Q81" s="110"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" s="61" t="s">
         <v>50</v>
       </c>
       <c r="B82" s="51" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C82" s="51" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D82" s="51" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E82" s="51" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F82" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G82" s="25" t="s">
         <v>16</v>
@@ -9829,8 +11557,10 @@
         <v>52</v>
       </c>
       <c r="O82" s="80"/>
-      <c r="P82" s="1"/>
-      <c r="Q82" s="1"/>
+      <c r="P82" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q82" s="29"/>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" s="26"/>
@@ -9848,8 +11578,8 @@
       <c r="M83" s="77"/>
       <c r="N83" s="76"/>
       <c r="O83" s="81"/>
-      <c r="P83" s="1"/>
-      <c r="Q83" s="1"/>
+      <c r="P83" s="30"/>
+      <c r="Q83" s="31"/>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" s="26"/>
@@ -9867,8 +11597,8 @@
       <c r="M84" s="77"/>
       <c r="N84" s="76"/>
       <c r="O84" s="81"/>
-      <c r="P84" s="1"/>
-      <c r="Q84" s="1"/>
+      <c r="P84" s="30"/>
+      <c r="Q84" s="31"/>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" s="26"/>
@@ -9886,8 +11616,8 @@
       <c r="M85" s="77"/>
       <c r="N85" s="76"/>
       <c r="O85" s="81"/>
-      <c r="P85" s="1"/>
-      <c r="Q85" s="1"/>
+      <c r="P85" s="30"/>
+      <c r="Q85" s="31"/>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" s="27"/>
@@ -9905,8 +11635,8 @@
       <c r="M86" s="79"/>
       <c r="N86" s="78"/>
       <c r="O86" s="82"/>
-      <c r="P86" s="1"/>
-      <c r="Q86" s="1"/>
+      <c r="P86" s="32"/>
+      <c r="Q86" s="33"/>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" s="61" t="s">
@@ -9915,16 +11645,16 @@
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="51" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E87" s="51" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F87" s="51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G87" s="85" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
@@ -10026,16 +11756,16 @@
         <v>57</v>
       </c>
       <c r="B92" s="51" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C92" s="51" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D92" s="51" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E92" s="51" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F92" s="25" t="s">
         <v>16</v>
@@ -10044,8 +11774,8 @@
         <v>16</v>
       </c>
       <c r="H92" s="1"/>
-      <c r="I92" s="51" t="s">
-        <v>151</v>
+      <c r="I92" s="103" t="s">
+        <v>184</v>
       </c>
       <c r="J92" s="25" t="s">
         <v>16</v>
@@ -10061,8 +11791,10 @@
         <v>61</v>
       </c>
       <c r="O92" s="80"/>
-      <c r="P92" s="1"/>
-      <c r="Q92" s="1"/>
+      <c r="P92" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q92" s="29"/>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" s="26"/>
@@ -10080,8 +11812,8 @@
       <c r="M93" s="77"/>
       <c r="N93" s="76"/>
       <c r="O93" s="81"/>
-      <c r="P93" s="1"/>
-      <c r="Q93" s="1"/>
+      <c r="P93" s="30"/>
+      <c r="Q93" s="31"/>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" s="26"/>
@@ -10099,8 +11831,8 @@
       <c r="M94" s="77"/>
       <c r="N94" s="76"/>
       <c r="O94" s="81"/>
-      <c r="P94" s="1"/>
-      <c r="Q94" s="1"/>
+      <c r="P94" s="30"/>
+      <c r="Q94" s="31"/>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" s="26"/>
@@ -10118,8 +11850,8 @@
       <c r="M95" s="77"/>
       <c r="N95" s="76"/>
       <c r="O95" s="81"/>
-      <c r="P95" s="1"/>
-      <c r="Q95" s="1"/>
+      <c r="P95" s="30"/>
+      <c r="Q95" s="31"/>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" s="27"/>
@@ -10137,8 +11869,8 @@
       <c r="M96" s="79"/>
       <c r="N96" s="78"/>
       <c r="O96" s="82"/>
-      <c r="P96" s="1"/>
-      <c r="Q96" s="1"/>
+      <c r="P96" s="32"/>
+      <c r="Q96" s="33"/>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" s="19" t="s">
@@ -10185,43 +11917,47 @@
         <v>59</v>
       </c>
       <c r="B99" s="51" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="C99" s="51" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="D99" s="51" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E99" s="51" t="s">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c r="F99" s="25" t="s">
         <v>16</v>
       </c>
       <c r="G99" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="H99" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="I99" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="H99" s="90" t="s">
+        <v>182</v>
+      </c>
+      <c r="I99" s="51" t="s">
+        <v>181</v>
+      </c>
       <c r="J99" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="K99" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="K99" s="70" t="s">
+      <c r="L99" s="74" t="s">
         <v>65</v>
-      </c>
-      <c r="L99" s="74" t="s">
-        <v>66</v>
       </c>
       <c r="M99" s="75"/>
       <c r="N99" s="74" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O99" s="80"/>
-      <c r="P99" s="1"/>
-      <c r="Q99" s="1"/>
+      <c r="P99" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q99" s="29"/>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100" s="26"/>
@@ -10232,15 +11968,15 @@
       <c r="F100" s="26"/>
       <c r="G100" s="45"/>
       <c r="H100" s="45"/>
-      <c r="I100" s="1"/>
+      <c r="I100" s="45"/>
       <c r="J100" s="49"/>
       <c r="K100" s="49"/>
       <c r="L100" s="76"/>
       <c r="M100" s="77"/>
       <c r="N100" s="76"/>
       <c r="O100" s="81"/>
-      <c r="P100" s="1"/>
-      <c r="Q100" s="1"/>
+      <c r="P100" s="30"/>
+      <c r="Q100" s="31"/>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101" s="26"/>
@@ -10251,15 +11987,15 @@
       <c r="F101" s="26"/>
       <c r="G101" s="45"/>
       <c r="H101" s="45"/>
-      <c r="I101" s="1"/>
+      <c r="I101" s="45"/>
       <c r="J101" s="49"/>
       <c r="K101" s="49"/>
       <c r="L101" s="76"/>
       <c r="M101" s="77"/>
       <c r="N101" s="76"/>
       <c r="O101" s="81"/>
-      <c r="P101" s="1"/>
-      <c r="Q101" s="1"/>
+      <c r="P101" s="30"/>
+      <c r="Q101" s="31"/>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102" s="26"/>
@@ -10270,15 +12006,15 @@
       <c r="F102" s="26"/>
       <c r="G102" s="45"/>
       <c r="H102" s="45"/>
-      <c r="I102" s="1"/>
+      <c r="I102" s="45"/>
       <c r="J102" s="49"/>
       <c r="K102" s="49"/>
       <c r="L102" s="76"/>
       <c r="M102" s="77"/>
       <c r="N102" s="76"/>
       <c r="O102" s="81"/>
-      <c r="P102" s="1"/>
-      <c r="Q102" s="1"/>
+      <c r="P102" s="30"/>
+      <c r="Q102" s="31"/>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103" s="27"/>
@@ -10289,60 +12025,60 @@
       <c r="F103" s="27"/>
       <c r="G103" s="46"/>
       <c r="H103" s="46"/>
-      <c r="I103" s="1"/>
+      <c r="I103" s="46"/>
       <c r="J103" s="50"/>
       <c r="K103" s="50"/>
       <c r="L103" s="78"/>
       <c r="M103" s="79"/>
       <c r="N103" s="78"/>
       <c r="O103" s="82"/>
-      <c r="P103" s="1"/>
-      <c r="Q103" s="1"/>
+      <c r="P103" s="32"/>
+      <c r="Q103" s="33"/>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" s="61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B104" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C104" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="C104" s="51" t="s">
-        <v>103</v>
-      </c>
       <c r="D104" s="51" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E104" s="51" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F104" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="G104" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="G104" s="51" t="s">
-        <v>99</v>
-      </c>
       <c r="H104" s="51" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="I104" s="51" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="J104" s="25" t="s">
         <v>16</v>
       </c>
       <c r="K104" s="86" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L104" s="87" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M104" s="75"/>
       <c r="N104" s="87" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O104" s="80"/>
       <c r="P104" s="28" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="Q104" s="29"/>
     </row>
@@ -10424,48 +12160,48 @@
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A109" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B109" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C109" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="D109" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="E109" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="F109" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="G109" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="H109" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="I109" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="J109" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="B109" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="C109" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="D109" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="E109" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="F109" s="88" t="s">
-        <v>105</v>
-      </c>
-      <c r="G109" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="H109" s="51" t="s">
-        <v>146</v>
-      </c>
-      <c r="I109" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="J109" s="70" t="s">
+      <c r="K109" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="K109" s="70" t="s">
+      <c r="L109" s="74" t="s">
         <v>71</v>
-      </c>
-      <c r="L109" s="74" t="s">
-        <v>72</v>
       </c>
       <c r="M109" s="75"/>
       <c r="N109" s="74" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O109" s="80"/>
       <c r="P109" s="28" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="Q109" s="29"/>
     </row>
@@ -10547,48 +12283,48 @@
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114" s="61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B114" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C114" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="D114" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="E114" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="F114" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="C114" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="D114" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="E114" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="F114" s="61" t="s">
+      <c r="G114" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="G114" s="51" t="s">
-        <v>110</v>
-      </c>
       <c r="H114" s="51" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I114" s="51" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J114" s="25" t="s">
         <v>16</v>
       </c>
       <c r="K114" s="70" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L114" s="89" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M114" s="29"/>
       <c r="N114" s="89" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O114" s="34"/>
       <c r="P114" s="28" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="Q114" s="29"/>
     </row>
@@ -10670,7 +12406,7 @@
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A119" s="91" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B119" s="92"/>
       <c r="C119" s="92"/>
@@ -10710,42 +12446,44 @@
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A121" s="61" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B121" s="61" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C121" s="61" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D121" s="51" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="E121" s="51" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="F121" s="25" t="s">
         <v>16</v>
       </c>
       <c r="G121" s="51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H121" s="90" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I121" s="1"/>
       <c r="J121" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="K121" s="70" t="s">
         <v>78</v>
-      </c>
-      <c r="K121" s="70" t="s">
-        <v>79</v>
       </c>
       <c r="L121" s="19"/>
       <c r="M121" s="16"/>
       <c r="N121" s="19"/>
       <c r="O121" s="20"/>
-      <c r="P121" s="1"/>
-      <c r="Q121" s="1"/>
+      <c r="P121" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q121" s="29"/>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A122" s="26"/>
@@ -10763,8 +12501,8 @@
       <c r="M122" s="72"/>
       <c r="N122" s="71"/>
       <c r="O122" s="73"/>
-      <c r="P122" s="1"/>
-      <c r="Q122" s="1"/>
+      <c r="P122" s="30"/>
+      <c r="Q122" s="31"/>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A123" s="26"/>
@@ -10782,8 +12520,8 @@
       <c r="M123" s="72"/>
       <c r="N123" s="71"/>
       <c r="O123" s="73"/>
-      <c r="P123" s="1"/>
-      <c r="Q123" s="1"/>
+      <c r="P123" s="30"/>
+      <c r="Q123" s="31"/>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A124" s="26"/>
@@ -10801,8 +12539,8 @@
       <c r="M124" s="72"/>
       <c r="N124" s="71"/>
       <c r="O124" s="73"/>
-      <c r="P124" s="1"/>
-      <c r="Q124" s="1"/>
+      <c r="P124" s="30"/>
+      <c r="Q124" s="31"/>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A125" s="27"/>
@@ -10820,8 +12558,8 @@
       <c r="M125" s="18"/>
       <c r="N125" s="17"/>
       <c r="O125" s="21"/>
-      <c r="P125" s="1"/>
-      <c r="Q125" s="1"/>
+      <c r="P125" s="32"/>
+      <c r="Q125" s="33"/>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A126" s="61"/>
@@ -11166,7 +12904,19 @@
       <c r="Q143" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="293">
+  <mergeCells count="307">
+    <mergeCell ref="P121:Q125"/>
+    <mergeCell ref="I19:I26"/>
+    <mergeCell ref="I99:I103"/>
+    <mergeCell ref="P14:Q18"/>
+    <mergeCell ref="P27:Q31"/>
+    <mergeCell ref="P37:Q42"/>
+    <mergeCell ref="P55:Q59"/>
+    <mergeCell ref="P67:Q71"/>
+    <mergeCell ref="P77:Q81"/>
+    <mergeCell ref="P82:Q86"/>
+    <mergeCell ref="P92:Q96"/>
+    <mergeCell ref="P99:Q103"/>
     <mergeCell ref="B62:B66"/>
     <mergeCell ref="C62:C66"/>
     <mergeCell ref="L32:M36"/>
@@ -11174,6 +12924,8 @@
     <mergeCell ref="B99:B103"/>
     <mergeCell ref="C99:C103"/>
     <mergeCell ref="C55:C59"/>
+    <mergeCell ref="H62:H66"/>
+    <mergeCell ref="P32:Q36"/>
     <mergeCell ref="P104:Q108"/>
     <mergeCell ref="P109:Q113"/>
     <mergeCell ref="P114:Q118"/>

--- a/analysis_nist_pqc_signatures.xlsx
+++ b/analysis_nist_pqc_signatures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gilbertndollanedione/Desktop/nist-pqc-first-round-signatures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F187050-078F-AF44-A6CF-29254EAC7DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F492C45E-2296-ED49-A2DA-E9562967291B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{C8054BE3-D351-A644-8250-379CA416B869}"/>
   </bookViews>
@@ -5303,81 +5303,18 @@
       <rPr>
         <b/>
         <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Definitely</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>Probably not constant time</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>meas:    0.01 M (M=1e6)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">,                      </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>max t:  +65.97</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">,           max tau: 6.32e-01, (5/tau)^2: 6.25e+01. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>Definitely</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
       <t xml:space="preserve"> not constant time</t>
     </r>
     <r>
@@ -5425,48 +5362,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>For the moment, maybe constant time.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                     </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>meas:    0.25 M (M=10.000), max t:   +1.61</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, max tau: 3.24e-03, (5/tau)^2: 2.38e+06. </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">For the moment, maybe constant time. </t>
     </r>
     <r>
@@ -5477,48 +5372,6 @@
         <rFont val="Calibri (Body)"/>
       </rPr>
       <t>(M=10.000)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">For the moment, maybe constant time.  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>meas:    0.12 M (M=10.000), max t:   +2.46,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> max tau: 7.12e-03, (5/tau)^2: 4.93e+05. </t>
     </r>
   </si>
   <si>
@@ -6565,60 +6418,6 @@
         <color rgb="FF00B050"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>NV:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> Probably not constant time.   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>meas:    0.28 M (M=1e6/1e5/1e3), max t:  +11.01,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">max tau: 2.08e-02, (5/tau)^2: 5.80e+04.  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
       <t>NV</t>
     </r>
     <r>
@@ -8150,6 +7949,466 @@
       <rPr>
         <b/>
         <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">:For the moment, maybe constant time.      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">meas:    3.30 M (1e5), max t:   +6.05, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">max tau: 3.33e-03, (5/tau)^2: 2.25e+06.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">      For the moment, maybe constant time. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>meas:    4.50 M, max t:   +4.56 (M=1e6)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, max tau: 2.15e-03, (5/tau)^2: 5.42e+06. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>NVI:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> Definitely</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>not constant time</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>meas:    0.06 M(M=1e5) , max t: +29592.55</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, max tau: 1.24e+02, (5/tau)^2: 1.61e-03. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>NVI:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> For the moment, maybe constant time.   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>meas:    0.88 M (M=1e5), max t:   +2.22</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>max tau: 2.37e-03, (5/tau)^2: 4.45e+06.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">          </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">NVI: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Probably not constant time.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>meas:    0.01 M(M=13), max t: +316.36,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">max tau: 3.03e+00, (5/tau)^2: 2.72e+00.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">                           NV:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> Definitely </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">not constant time.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>meas:    0.02 M (M=1e4), max t: +1289.36</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> max tau: 9.12e+00, (5/tau)^2: 3.00e-01. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">NVI: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">For the moment, maybe constant time. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>meas:    0.12 M (M=1e4), max t:   +2.93,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">max tau: 8.38e-03, (5/tau)^2: 3.56e+05.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">                           For the moment, maybe constant time.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>meas:    0.12 M (M=10.000), max t:   +2.46,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> max tau: 7.12e-03, (5/tau)^2: 4.93e+05. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">NVI: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>For the moment, maybe constant time</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>meas:    0.05 M (M=1e4), max t:   +1.37,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>max tau: 5.92e-03, (5/tau)^2: 7.13e+05. .</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">                         NV</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -8196,7 +8455,7 @@
         <color rgb="FF00B050"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>NV</t>
+      <t>NVI:</t>
     </r>
     <r>
       <rPr>
@@ -8205,22 +8464,15 @@
         <color rgb="FF7030A0"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t xml:space="preserve">:For the moment, maybe constant time.      </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">meas:    3.30 M (1e5), max t:   +6.05, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">max tau: 3.33e-03, (5/tau)^2: 2.25e+06.  </t>
+      <t xml:space="preserve">  For the moment, maybe constant time.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>meas:    0.40 M (M=1e4), max t:   +1.77</t>
     </r>
     <r>
       <rPr>
@@ -8229,38 +8481,54 @@
         <color rgb="FF7030A0"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t xml:space="preserve">      For the moment, maybe constant time. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>meas:    4.50 M, max t:   +4.56 (M=1e6)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, max tau: 2.15e-03, (5/tau)^2: 5.42e+06. </t>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>max tau: 2.78e-03, (5/tau)^2: 3.24e+06.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">                              For the moment, maybe constant time.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>meas:    0.25 M (M=10.000), max t:   +1.61</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, max tau: 3.24e-03, (5/tau)^2: 2.38e+06. </t>
     </r>
   </si>
   <si>
@@ -8271,27 +8539,234 @@
         <color rgb="FF00B050"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
+      <t xml:space="preserve"> NVI:  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>For the moment, maybe constant time.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>meas:    0.24 M (1e4), max t:   +1.37,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">max tau: 2.81e-03, (5/tau)^2: 3.17e+06.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">       NV: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">Probably not constant time. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>meas:    1.19 M (M=1e5), max t:  +10.32</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">max tau: 9.46e-03, (5/tau)^2: 2.80e+05. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">NVI: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Probably not constant time.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>meas:    0.84 M (M=1e4), max t:  +10.06,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">max tau: 1.10e-02, (5/tau)^2: 2.08e+05. . </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">     NV:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> Probably not constant time.   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>meas:    0.28 M (M=1e6/1e5/1e3), max t:  +11.01,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">max tau: 2.08e-02, (5/tau)^2: 5.80e+04.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
       <t>NVI:</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
         <color rgb="FFC00000"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t xml:space="preserve"> Definitely</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t>Definitely</t>
     </r>
     <r>
       <rPr>
@@ -8300,113 +8775,22 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>not constant time</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>meas:    0.06 M(M=1e5) , max t: +29592.55</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, max tau: 1.24e+02, (5/tau)^2: 1.61e-03. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>NVI:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> For the moment, maybe constant time.   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>meas:    0.88 M (M=1e5), max t:   +2.22</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>max tau: 2.37e-03, (5/tau)^2: 4.45e+06.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">          </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> NVI:  For the moment, maybe constant time.  meas:    0.24 M, max t:   +1.37, max tau: 2.81e-03, (5/tau)^2: 3.17e+06.         NV: </t>
+      <t xml:space="preserve"> not constant time.   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">meas:    0.01 M (M=1e4), max t: +4143.72, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">max tau: 3.67e+01, (5/tau)^2: 1.85e-02. </t>
     </r>
     <r>
       <rPr>
@@ -8415,146 +8799,59 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t xml:space="preserve">Probably not constant time. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>meas:    1.19 M (M=1e5), max t:  +10.32</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">max tau: 9.46e-03, (5/tau)^2: 2.80e+05. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">NVI: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>Probably not constant time.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>meas:    0.01 M(M=13), max t: +316.36,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">max tau: 3.03e+00, (5/tau)^2: 2.72e+00.  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">                           NV:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> Definitely </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">not constant time.  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>meas:    0.02 M (M=1e4), max t: +1289.36</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> max tau: 9.12e+00, (5/tau)^2: 3.00e-01. </t>
+      <t xml:space="preserve"> Probably not constant time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>meas:    0.01 M (M=1e6)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">,                      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>max t:  +65.97</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">,           max tau: 6.32e-01, (5/tau)^2: 6.25e+01. </t>
     </r>
   </si>
 </sst>
@@ -9602,8 +9899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36623FBA-CEA1-594C-B41A-AB27154FBA5D}">
   <dimension ref="A1:Q143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <selection activeCell="H96" sqref="H96"/>
+    <sheetView tabSelected="1" topLeftCell="B100" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
+      <selection activeCell="I109" sqref="I109:I113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9751,7 +10048,7 @@
       </c>
       <c r="O5" s="20"/>
       <c r="P5" s="19" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="Q5" s="16"/>
     </row>
@@ -9819,10 +10116,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D9" s="48" t="s">
         <v>115</v>
@@ -9932,16 +10229,16 @@
         <v>10</v>
       </c>
       <c r="B14" s="63" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D14" s="67" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="67" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F14" s="22" t="s">
         <v>16</v>
@@ -9951,7 +10248,7 @@
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="51" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J14" s="55" t="s">
         <v>18</v>
@@ -9968,7 +10265,7 @@
       </c>
       <c r="O14" s="10"/>
       <c r="P14" s="28" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Q14" s="29"/>
     </row>
@@ -10056,7 +10353,7 @@
         <v>62</v>
       </c>
       <c r="C19" s="47" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D19" s="90" t="s">
         <v>111</v>
@@ -10072,7 +10369,7 @@
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="51" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J19" s="22" t="s">
         <v>16</v>
@@ -10087,7 +10384,7 @@
       </c>
       <c r="O19" s="80"/>
       <c r="P19" s="28" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Q19" s="29"/>
     </row>
@@ -10235,10 +10532,10 @@
         <v>99</v>
       </c>
       <c r="D27" s="51" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E27" s="51" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F27" s="25" t="s">
         <v>16</v>
@@ -10247,10 +10544,10 @@
         <v>16</v>
       </c>
       <c r="H27" s="51" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I27" s="51" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="J27" s="55" t="s">
         <v>22</v>
@@ -10263,7 +10560,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="2"/>
       <c r="P27" s="28" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="Q27" s="29"/>
     </row>
@@ -10348,16 +10645,16 @@
         <v>13</v>
       </c>
       <c r="B32" s="47" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C32" s="47" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D32" s="103" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E32" s="51" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F32" s="25" t="s">
         <v>16</v>
@@ -10369,7 +10666,7 @@
         <v>129</v>
       </c>
       <c r="I32" s="51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J32" s="25" t="s">
         <v>16</v>
@@ -10386,7 +10683,7 @@
       </c>
       <c r="O32" s="10"/>
       <c r="P32" s="28" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Q32" s="29"/>
     </row>
@@ -10471,16 +10768,16 @@
         <v>14</v>
       </c>
       <c r="B37" s="51" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C37" s="51" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D37" s="83" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E37" s="104" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F37" s="25" t="s">
         <v>16</v>
@@ -10489,10 +10786,10 @@
         <v>16</v>
       </c>
       <c r="H37" s="51" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I37" s="51" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="J37" s="59" t="s">
         <v>27</v>
@@ -10509,7 +10806,7 @@
       </c>
       <c r="O37" s="10"/>
       <c r="P37" s="28" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Q37" s="29"/>
     </row>
@@ -10653,10 +10950,10 @@
         <v>29</v>
       </c>
       <c r="B45" s="44" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C45" s="44" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D45" s="51" t="s">
         <v>117</v>
@@ -10671,7 +10968,7 @@
         <v>81</v>
       </c>
       <c r="H45" s="51" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="25" t="s">
@@ -10772,16 +11069,16 @@
         <v>32</v>
       </c>
       <c r="B50" s="44" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C50" s="44" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D50" s="83" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E50" s="51" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F50" s="51" t="s">
         <v>84</v>
@@ -10885,16 +11182,16 @@
         <v>34</v>
       </c>
       <c r="B55" s="51" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C55" s="51" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D55" s="51" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E55" s="51" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F55" s="51" t="s">
         <v>85</v>
@@ -10919,7 +11216,7 @@
       </c>
       <c r="O55" s="80"/>
       <c r="P55" s="28" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Q55" s="29"/>
     </row>
@@ -11044,10 +11341,10 @@
         <v>40</v>
       </c>
       <c r="B62" s="47" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C62" s="47" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D62" s="51" t="s">
         <v>118</v>
@@ -11062,10 +11359,10 @@
         <v>16</v>
       </c>
       <c r="H62" s="51" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I62" s="102" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J62" s="25" t="s">
         <v>16</v>
@@ -11082,7 +11379,7 @@
       </c>
       <c r="O62" s="80"/>
       <c r="P62" s="28" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Q62" s="29"/>
     </row>
@@ -11167,16 +11464,16 @@
         <v>41</v>
       </c>
       <c r="B67" s="47" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C67" s="47" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D67" s="51" t="s">
         <v>112</v>
       </c>
       <c r="E67" s="83" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F67" s="51" t="s">
         <v>87</v>
@@ -11201,7 +11498,7 @@
       </c>
       <c r="O67" s="80"/>
       <c r="P67" s="28" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Q67" s="29"/>
     </row>
@@ -11286,10 +11583,10 @@
         <v>44</v>
       </c>
       <c r="B72" s="51" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C72" s="51" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D72" s="51" t="s">
         <v>122</v>
@@ -11305,7 +11602,7 @@
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="51" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J72" s="22" t="s">
         <v>16</v>
@@ -11439,7 +11736,7 @@
       </c>
       <c r="O77" s="80"/>
       <c r="P77" s="105" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="Q77" s="106"/>
     </row>
@@ -11524,10 +11821,10 @@
         <v>50</v>
       </c>
       <c r="B82" s="51" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C82" s="51" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D82" s="51" t="s">
         <v>112</v>
@@ -11558,7 +11855,7 @@
       </c>
       <c r="O82" s="80"/>
       <c r="P82" s="28" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="Q82" s="29"/>
     </row>
@@ -11756,10 +12053,10 @@
         <v>57</v>
       </c>
       <c r="B92" s="51" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C92" s="51" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D92" s="51" t="s">
         <v>112</v>
@@ -11775,7 +12072,7 @@
       </c>
       <c r="H92" s="1"/>
       <c r="I92" s="103" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="J92" s="25" t="s">
         <v>16</v>
@@ -11792,7 +12089,7 @@
       </c>
       <c r="O92" s="80"/>
       <c r="P92" s="28" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="Q92" s="29"/>
     </row>
@@ -11917,16 +12214,16 @@
         <v>59</v>
       </c>
       <c r="B99" s="51" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C99" s="51" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D99" s="51" t="s">
         <v>112</v>
       </c>
       <c r="E99" s="51" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F99" s="25" t="s">
         <v>16</v>
@@ -11935,10 +12232,10 @@
         <v>94</v>
       </c>
       <c r="H99" s="90" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="I99" s="51" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="J99" s="70" t="s">
         <v>63</v>
@@ -11955,7 +12252,7 @@
       </c>
       <c r="O99" s="80"/>
       <c r="P99" s="28" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Q99" s="29"/>
     </row>
@@ -12058,10 +12355,10 @@
         <v>98</v>
       </c>
       <c r="H104" s="51" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I104" s="51" t="s">
-        <v>134</v>
+        <v>179</v>
       </c>
       <c r="J104" s="25" t="s">
         <v>16</v>
@@ -12078,7 +12375,7 @@
       </c>
       <c r="O104" s="80"/>
       <c r="P104" s="28" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Q104" s="29"/>
     </row>
@@ -12181,10 +12478,10 @@
         <v>105</v>
       </c>
       <c r="H109" s="51" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I109" s="51" t="s">
-        <v>130</v>
+        <v>184</v>
       </c>
       <c r="J109" s="70" t="s">
         <v>69</v>
@@ -12201,7 +12498,7 @@
       </c>
       <c r="O109" s="80"/>
       <c r="P109" s="28" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Q109" s="29"/>
     </row>
@@ -12304,10 +12601,10 @@
         <v>109</v>
       </c>
       <c r="H114" s="51" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I114" s="51" t="s">
-        <v>132</v>
+        <v>181</v>
       </c>
       <c r="J114" s="25" t="s">
         <v>16</v>
@@ -12324,7 +12621,7 @@
       </c>
       <c r="O114" s="34"/>
       <c r="P114" s="28" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Q114" s="29"/>
     </row>
@@ -12449,10 +12746,10 @@
         <v>76</v>
       </c>
       <c r="B121" s="61" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C121" s="61" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D121" s="51" t="s">
         <v>112</v>
@@ -12467,7 +12764,7 @@
         <v>110</v>
       </c>
       <c r="H121" s="90" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I121" s="1"/>
       <c r="J121" s="70" t="s">
@@ -12481,7 +12778,7 @@
       <c r="N121" s="19"/>
       <c r="O121" s="20"/>
       <c r="P121" s="28" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Q121" s="29"/>
     </row>

--- a/analysis_nist_pqc_signatures.xlsx
+++ b/analysis_nist_pqc_signatures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gilbertndollanedione/Desktop/nist-pqc-first-round-signatures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F492C45E-2296-ED49-A2DA-E9562967291B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38C81A9-E756-BC41-8031-CF831DDAE2B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{C8054BE3-D351-A644-8250-379CA416B869}"/>
   </bookViews>
@@ -8352,6 +8352,194 @@
         <color rgb="FF00B050"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
+      <t>NVI:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">  For the moment, maybe constant time.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>meas:    0.40 M (M=1e4), max t:   +1.77</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>max tau: 2.78e-03, (5/tau)^2: 3.24e+06.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">                              For the moment, maybe constant time.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>meas:    0.25 M (M=10.000), max t:   +1.61</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, max tau: 3.24e-03, (5/tau)^2: 2.38e+06. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> NVI:  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>For the moment, maybe constant time.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>meas:    0.24 M (1e4), max t:   +1.37,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">max tau: 2.81e-03, (5/tau)^2: 3.17e+06.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">       NV: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">Probably not constant time. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>meas:    1.19 M (M=1e5), max t:  +10.32</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">max tau: 9.46e-03, (5/tau)^2: 2.80e+05. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
       <t xml:space="preserve">NVI: </t>
     </r>
     <r>
@@ -8361,6 +8549,276 @@
         <color rgb="FF7030A0"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
+      <t>Probably not constant time.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>meas:    0.84 M (M=1e4), max t:  +10.06,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">max tau: 1.10e-02, (5/tau)^2: 2.08e+05. . </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">     NV:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> Probably not constant time.   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>meas:    0.28 M (M=1e6/1e5/1e3), max t:  +11.01,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">max tau: 2.08e-02, (5/tau)^2: 5.80e+04.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>NVI:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Definitely</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> not constant time.   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">meas:    0.01 M (M=1e4), max t: +4143.72, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">max tau: 3.67e+01, (5/tau)^2: 1.85e-02. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> Probably not constant time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>meas:    0.01 M (M=1e6)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">,                      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>max t:  +65.97</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">,           max tau: 6.32e-01, (5/tau)^2: 6.25e+01. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> NVIN: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>For the moment, maybe constant time.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>meas:    0.04 M (M=1e3), max t:   +1.08,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">max tau: 5.27e-03, (5/tau)^2: 8.99e+05.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">                        NVI: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
       <t>For the moment, maybe constant time</t>
     </r>
     <r>
@@ -8445,413 +8903,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">, max tau: 7.31e-03, (5/tau)^2: 4.68e+05. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>NVI:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">  For the moment, maybe constant time.  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>meas:    0.40 M (M=1e4), max t:   +1.77</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>max tau: 2.78e-03, (5/tau)^2: 3.24e+06.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">                              For the moment, maybe constant time.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                     </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>meas:    0.25 M (M=10.000), max t:   +1.61</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, max tau: 3.24e-03, (5/tau)^2: 2.38e+06. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> NVI:  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>For the moment, maybe constant time.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>meas:    0.24 M (1e4), max t:   +1.37,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">max tau: 2.81e-03, (5/tau)^2: 3.17e+06.  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">       NV: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">Probably not constant time. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>meas:    1.19 M (M=1e5), max t:  +10.32</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">max tau: 9.46e-03, (5/tau)^2: 2.80e+05. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">NVI: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>Probably not constant time.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>meas:    0.84 M (M=1e4), max t:  +10.06,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">max tau: 1.10e-02, (5/tau)^2: 2.08e+05. . </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">     NV:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> Probably not constant time.   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>meas:    0.28 M (M=1e6/1e5/1e3), max t:  +11.01,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">max tau: 2.08e-02, (5/tau)^2: 5.80e+04.  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>NVI:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>Definitely</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> not constant time.   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">meas:    0.01 M (M=1e4), max t: +4143.72, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">max tau: 3.67e+01, (5/tau)^2: 1.85e-02. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> Probably not constant time</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>meas:    0.01 M (M=1e6)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">,                      </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>max t:  +65.97</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">,           max tau: 6.32e-01, (5/tau)^2: 6.25e+01. </t>
     </r>
   </si>
 </sst>
@@ -9899,8 +9950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36623FBA-CEA1-594C-B41A-AB27154FBA5D}">
   <dimension ref="A1:Q143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B100" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <selection activeCell="I109" sqref="I109:I113"/>
+    <sheetView tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10369,7 +10420,7 @@
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="51" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="J19" s="22" t="s">
         <v>16</v>
@@ -10547,7 +10598,7 @@
         <v>143</v>
       </c>
       <c r="I27" s="51" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J27" s="55" t="s">
         <v>22</v>
@@ -11362,7 +11413,7 @@
         <v>154</v>
       </c>
       <c r="I62" s="102" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J62" s="25" t="s">
         <v>16</v>
@@ -12481,7 +12532,7 @@
         <v>134</v>
       </c>
       <c r="I109" s="51" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J109" s="70" t="s">
         <v>69</v>
@@ -12604,7 +12655,7 @@
         <v>132</v>
       </c>
       <c r="I114" s="51" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J114" s="25" t="s">
         <v>16</v>
